--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075E4F72-5DD3-4ED3-A638-6766DD5078BB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA252B8-BF1F-4A86-81C7-291FE41D01A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
@@ -319,20 +319,20 @@
     <t>Priorización</t>
   </si>
   <si>
-    <t>Fibonacci Numbers
+    <t>debo poder registrarme automáticamente en un servidor XMPP usando credenciales de consumidor</t>
+  </si>
+  <si>
+    <t>debo poder registrarme automáticamente en servidor XMPP usando credenciales de consumidor</t>
+  </si>
+  <si>
+    <t>necesito visualizar  las «credenciales de consumidor», las identidades permitidas y las identidades utilizadas para esta</t>
+  </si>
+  <si>
+    <t>necesito visualizar cuantas y que identidades han sido creadas con una «credencial de consumidor»</t>
+  </si>
+  <si>
+    <t>Priorizatión Fibonacci Numbers
 2, 3, 5, 8, 13, 21, 34, 55, 89, 144, 233</t>
-  </si>
-  <si>
-    <t>debo poder registrarme automáticamente en un servidor XMPP usando credenciales de consumidor</t>
-  </si>
-  <si>
-    <t>debo poder registrarme automáticamente en servidor XMPP usando credenciales de consumidor</t>
-  </si>
-  <si>
-    <t>necesito visualizar  las «credenciales de consumidor», las identidades permitidas y las identidades utilizadas para esta</t>
-  </si>
-  <si>
-    <t>necesito visualizar cuantas y que identidades han sido creadas con una «credencial de consumidor»</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,510 @@
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1029,6 +1532,24 @@
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1157,6 +1678,24 @@
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1285,6 +1824,24 @@
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1413,6 +1970,24 @@
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1541,6 +2116,24 @@
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1668,6 +2261,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2870,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>77</v>
@@ -2881,7 +3492,9 @@
       <c r="F6" s="37">
         <v>55</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37">
+        <v>2</v>
+      </c>
       <c r="H6"/>
       <c r="I6" s="36" t="s">
         <v>71</v>
@@ -2895,7 +3508,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>78</v>
@@ -2956,7 +3569,7 @@
       <c r="G9" s="37"/>
       <c r="H9"/>
       <c r="I9" s="39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
@@ -2967,7 +3580,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>79</v>
@@ -2989,7 +3602,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>79</v>
@@ -3092,24 +3705,24 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"M"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3133,7 +3746,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3315,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3475,15 +4088,29 @@
         <v>4</v>
       </c>
       <c r="I6" s="17">
-        <f t="shared" ref="I6:I11" si="1">G6*H6</f>
+        <f>G6*H6</f>
         <v>16</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="J6" s="16">
+        <v>4</v>
+      </c>
+      <c r="K6" s="16">
+        <v>4</v>
+      </c>
+      <c r="L6" s="17">
+        <f>J6*K6</f>
+        <v>16</v>
+      </c>
+      <c r="M6" s="16">
+        <v>5</v>
+      </c>
+      <c r="N6" s="16">
+        <v>4</v>
+      </c>
+      <c r="O6" s="17">
+        <f>M6*N6</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
@@ -3509,15 +4136,29 @@
         <v>3</v>
       </c>
       <c r="I7" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I7:I9" si="1">G7*H7</f>
         <v>12</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="J7" s="16">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="17">
+        <f>J7*K7</f>
+        <v>9</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2</v>
+      </c>
+      <c r="N7" s="16">
+        <v>3</v>
+      </c>
+      <c r="O7" s="17">
+        <f t="shared" ref="O7:O9" si="2">M7*N7</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
@@ -3543,15 +4184,29 @@
         <v>4</v>
       </c>
       <c r="I8" s="17">
-        <f t="shared" si="1"/>
+        <f>G8*H8</f>
         <v>16</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="J8" s="16">
+        <v>4</v>
+      </c>
+      <c r="K8" s="16">
+        <v>3</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" ref="L8:L10" si="3">J8*K8</f>
+        <v>12</v>
+      </c>
+      <c r="M8" s="16">
+        <v>3</v>
+      </c>
+      <c r="N8" s="16">
+        <v>3</v>
+      </c>
+      <c r="O8" s="17">
+        <f>M8*N8</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -3580,12 +4235,26 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="J9" s="16">
+        <v>4</v>
+      </c>
+      <c r="K9" s="16">
+        <v>3</v>
+      </c>
+      <c r="L9" s="17">
+        <f>J9*K9</f>
+        <v>12</v>
+      </c>
+      <c r="M9" s="16">
+        <v>3</v>
+      </c>
+      <c r="N9" s="16">
+        <v>3</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
@@ -3611,15 +4280,29 @@
         <v>4</v>
       </c>
       <c r="I10" s="17">
-        <f t="shared" si="1"/>
+        <f>G10*H10</f>
         <v>12</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="J10" s="16">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
+        <v>4</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M10" s="16">
+        <v>3</v>
+      </c>
+      <c r="N10" s="16">
+        <v>4</v>
+      </c>
+      <c r="O10" s="17">
+        <f>M10*N10</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
@@ -3645,15 +4328,29 @@
         <v>3</v>
       </c>
       <c r="I11" s="17">
-        <f t="shared" si="1"/>
+        <f>G11*H11</f>
         <v>6</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="J11" s="16">
+        <v>2</v>
+      </c>
+      <c r="K11" s="16">
+        <v>3</v>
+      </c>
+      <c r="L11" s="17">
+        <f>J11*K11</f>
+        <v>6</v>
+      </c>
+      <c r="M11" s="16">
+        <v>3</v>
+      </c>
+      <c r="N11" s="16">
+        <v>3</v>
+      </c>
+      <c r="O11" s="17">
+        <f>M11*N11</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
@@ -3683,6 +4380,30 @@
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="B2:C4"/>
   </mergeCells>
+  <conditionalFormatting sqref="F6:F11 I6:I11 L6:L11 O6:O11">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+      <formula>5</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11 L6:L11 I6:I11 F6:F11">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+      <formula>0</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>10</formula>
+      <formula>16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075E4F72-5DD3-4ED3-A638-6766DD5078BB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049DBADF-3793-44E5-AADC-CCA890AC7445}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
@@ -319,20 +319,20 @@
     <t>Priorización</t>
   </si>
   <si>
-    <t>Fibonacci Numbers
+    <t>debo poder registrarme automáticamente en un servidor XMPP usando credenciales de consumidor</t>
+  </si>
+  <si>
+    <t>debo poder registrarme automáticamente en servidor XMPP usando credenciales de consumidor</t>
+  </si>
+  <si>
+    <t>necesito visualizar  las «credenciales de consumidor», las identidades permitidas y las identidades utilizadas para esta</t>
+  </si>
+  <si>
+    <t>necesito visualizar cuantas y que identidades han sido creadas con una «credencial de consumidor»</t>
+  </si>
+  <si>
+    <t>Priorizatión Fibonacci Numbers
 2, 3, 5, 8, 13, 21, 34, 55, 89, 144, 233</t>
-  </si>
-  <si>
-    <t>debo poder registrarme automáticamente en un servidor XMPP usando credenciales de consumidor</t>
-  </si>
-  <si>
-    <t>debo poder registrarme automáticamente en servidor XMPP usando credenciales de consumidor</t>
-  </si>
-  <si>
-    <t>necesito visualizar  las «credenciales de consumidor», las identidades permitidas y las identidades utilizadas para esta</t>
-  </si>
-  <si>
-    <t>necesito visualizar cuantas y que identidades han sido creadas con una «credencial de consumidor»</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,70 @@
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -939,9 +1002,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -959,24 +1022,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -987,19 +1032,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1007,18 +1043,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$6:$O$6</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -1067,9 +1103,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1087,24 +1123,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1115,19 +1133,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1135,27 +1144,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$7:$O$7</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,9 +1204,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1215,24 +1224,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1243,19 +1234,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1263,27 +1245,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$8:$O$8</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,9 +1305,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1343,24 +1325,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1371,19 +1335,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1391,10 +1346,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$9:$O$9</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1451,9 +1406,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1471,24 +1426,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1499,19 +1436,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1519,18 +1447,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$10:$O$10</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -1579,9 +1507,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1599,24 +1527,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1627,19 +1537,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1647,10 +1548,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$11:$O$11</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2746,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2870,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>77</v>
@@ -2881,7 +2782,9 @@
       <c r="F6" s="37">
         <v>55</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37">
+        <v>2</v>
+      </c>
       <c r="H6"/>
       <c r="I6" s="36" t="s">
         <v>71</v>
@@ -2895,7 +2798,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>78</v>
@@ -2956,7 +2859,7 @@
       <c r="G9" s="37"/>
       <c r="H9"/>
       <c r="I9" s="39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
@@ -2967,7 +2870,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>79</v>
@@ -2989,7 +2892,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>79</v>
@@ -3092,24 +2995,24 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"M"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3133,7 +3036,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3315,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3459,14 +3362,14 @@
         <v>37</v>
       </c>
       <c r="D6" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
-        <v>16</v>
+        <f>D6*E6</f>
+        <v>15</v>
       </c>
       <c r="G6" s="16">
         <v>4</v>
@@ -3475,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="17">
-        <f t="shared" ref="I6:I11" si="1">G6*H6</f>
+        <f>G6*H6</f>
         <v>16</v>
       </c>
       <c r="J6" s="16"/>
@@ -3496,21 +3399,21 @@
         <v>4</v>
       </c>
       <c r="E7" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>D7*E7</f>
+        <v>12</v>
       </c>
       <c r="G7" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="16">
         <v>3</v>
       </c>
       <c r="I7" s="17">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>G7*H7</f>
+        <v>6</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -3527,24 +3430,24 @@
         <v>39</v>
       </c>
       <c r="D8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>D8*E8</f>
+        <v>1</v>
       </c>
       <c r="G8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="17">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>G8*H8</f>
+        <v>1</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -3567,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="0"/>
+        <f>D9*E9</f>
         <v>12</v>
       </c>
       <c r="G9" s="16">
@@ -3577,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I7:I9" si="0">G9*H9</f>
         <v>12</v>
       </c>
       <c r="J9" s="16"/>
@@ -3595,14 +3498,14 @@
         <v>41</v>
       </c>
       <c r="D10" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="16">
         <v>4</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="F6:F11" si="1">D10*E10</f>
+        <v>16</v>
       </c>
       <c r="G10" s="16">
         <v>3</v>
@@ -3611,7 +3514,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="17">
-        <f t="shared" si="1"/>
+        <f>G10*H10</f>
         <v>12</v>
       </c>
       <c r="J10" s="16"/>
@@ -3635,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="0"/>
+        <f>D11*E11</f>
         <v>6</v>
       </c>
       <c r="G11" s="16">
@@ -3645,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="17">
-        <f t="shared" si="1"/>
+        <f>G11*H11</f>
         <v>6</v>
       </c>
       <c r="J11" s="16"/>
@@ -3683,6 +3586,30 @@
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="B2:C4"/>
   </mergeCells>
+  <conditionalFormatting sqref="F6:F11 I6:I11 L6:L11 O6:O11">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+      <formula>5</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11 L6:L11 I6:I11 F6:F11">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>0</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>10</formula>
+      <formula>16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA252B8-BF1F-4A86-81C7-291FE41D01A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09F4F2-12F9-4DC4-B09F-92DA87BC39B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Riesgo tecnico - Consolidado" sheetId="3" r:id="rId2"/>
     <sheet name="Riesgo tecnico - Tracker semana" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -752,68 +752,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -866,385 +805,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1515,13 +1075,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -1542,13 +1102,13 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,37 +1224,37 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,40 +1367,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,10 +1531,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>12</c:v>
@@ -1983,10 +1543,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,13 +1659,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -2272,13 +1832,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3705,24 +3265,24 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"M"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3929,7 +3489,7 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4072,14 +3632,14 @@
         <v>37</v>
       </c>
       <c r="D6" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
-        <v>16</v>
+        <f>D6*E6</f>
+        <v>15</v>
       </c>
       <c r="G6" s="16">
         <v>4</v>
@@ -4102,14 +3662,14 @@
         <v>16</v>
       </c>
       <c r="M6" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" s="16">
         <v>4</v>
       </c>
       <c r="O6" s="17">
         <f>M6*N6</f>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -4123,41 +3683,41 @@
         <v>4</v>
       </c>
       <c r="E7" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>D7*E7</f>
+        <v>12</v>
       </c>
       <c r="G7" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="16">
         <v>3</v>
       </c>
       <c r="I7" s="17">
-        <f t="shared" ref="I7:I9" si="1">G7*H7</f>
-        <v>12</v>
+        <f>G7*H7</f>
+        <v>6</v>
       </c>
       <c r="J7" s="16">
         <v>3</v>
       </c>
       <c r="K7" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="17">
-        <f>J7*K7</f>
-        <v>9</v>
+        <f t="shared" ref="L7:L11" si="0">J7*K7</f>
+        <v>6</v>
       </c>
       <c r="M7" s="16">
         <v>2</v>
       </c>
       <c r="N7" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="17">
-        <f t="shared" ref="O7:O9" si="2">M7*N7</f>
-        <v>6</v>
+        <f t="shared" ref="O7:O11" si="1">M7*N7</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -4168,44 +3728,44 @@
         <v>39</v>
       </c>
       <c r="D8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>D8*E8</f>
+        <v>1</v>
       </c>
       <c r="G8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="17">
         <f>G8*H8</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" s="17">
-        <f t="shared" ref="L8:L10" si="3">J8*K8</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M8" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" s="17">
-        <f>M8*N8</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -4222,38 +3782,38 @@
         <v>4</v>
       </c>
       <c r="F9" s="17">
+        <f>D9*E9</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16">
+        <v>4</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9" si="2">G9*H9</f>
+        <v>12</v>
+      </c>
+      <c r="J9" s="16">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
+        <v>4</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G9" s="16">
+      <c r="M9" s="16">
         <v>3</v>
       </c>
-      <c r="H9" s="16">
+      <c r="N9" s="16">
         <v>4</v>
       </c>
-      <c r="I9" s="17">
+      <c r="O9" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
-      </c>
-      <c r="J9" s="16">
-        <v>4</v>
-      </c>
-      <c r="K9" s="16">
-        <v>3</v>
-      </c>
-      <c r="L9" s="17">
-        <f>J9*K9</f>
-        <v>12</v>
-      </c>
-      <c r="M9" s="16">
-        <v>3</v>
-      </c>
-      <c r="N9" s="16">
-        <v>3</v>
-      </c>
-      <c r="O9" s="17">
-        <f t="shared" si="2"/>
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -4264,14 +3824,14 @@
         <v>41</v>
       </c>
       <c r="D10" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="16">
         <v>4</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="F10" si="3">D10*E10</f>
+        <v>16</v>
       </c>
       <c r="G10" s="16">
         <v>3</v>
@@ -4290,7 +3850,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M10" s="16">
@@ -4300,7 +3860,7 @@
         <v>4</v>
       </c>
       <c r="O10" s="17">
-        <f>M10*N10</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -4318,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="0"/>
+        <f>D11*E11</f>
         <v>6</v>
       </c>
       <c r="G11" s="16">
@@ -4338,18 +3898,18 @@
         <v>3</v>
       </c>
       <c r="L11" s="17">
-        <f>J11*K11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M11" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="16">
         <v>3</v>
       </c>
       <c r="O11" s="17">
-        <f>M11*N11</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
@@ -4381,25 +3941,25 @@
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F11 I6:I11 L6:L11 O6:O11">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
       <formula>5</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11 L6:L11 I6:I11 F6:F11">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+  <conditionalFormatting sqref="I6:I11 F6:F11 L6:L11 O6:O11">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>0</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>10</formula>
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>17</formula>
       <formula>25</formula>
     </cfRule>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09F4F2-12F9-4DC4-B09F-92DA87BC39B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF2257-E297-491D-A9F1-07FF30232A0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
@@ -754,38 +754,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -805,6 +773,38 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -848,11 +848,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -868,11 +868,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2917,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3255,6 +3255,15 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E9">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3264,15 +3273,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
-      <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
@@ -3305,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3488,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3947,21 +3947,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11 F6:F11 L6:L11 O6:O11">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>10</formula>
+      <formula>16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>0</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>10</formula>
-      <formula>16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>17</formula>
-      <formula>25</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF2257-E297-491D-A9F1-07FF30232A0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049DBADF-3793-44E5-AADC-CCA890AC7445}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
     <sheet name="Riesgo tecnico - Consolidado" sheetId="3" r:id="rId2"/>
     <sheet name="Riesgo tecnico - Tracker semana" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -754,6 +754,38 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -773,38 +805,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -848,11 +848,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -868,11 +868,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1002,9 +1002,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1022,24 +1022,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1050,19 +1032,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1070,10 +1043,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$6:$O$6</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1090,24 +1063,6 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -1148,9 +1103,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1168,24 +1123,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1196,19 +1133,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1216,10 +1144,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$7:$O$7</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1237,24 +1165,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,9 +1204,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1314,24 +1224,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1342,19 +1234,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1362,10 +1245,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$8:$O$8</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1382,24 +1265,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1440,9 +1305,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1460,24 +1325,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1488,19 +1335,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1508,10 +1346,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$9:$O$9</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1528,24 +1366,6 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -1586,9 +1406,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1606,24 +1426,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1634,19 +1436,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1654,10 +1447,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$10:$O$10</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1674,24 +1467,6 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -1732,9 +1507,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Prob</c:v>
@@ -1752,24 +1527,6 @@
                     <c:v>Impact</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Riesgo</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Prob</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Impact</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>Riesgo</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1780,19 +1537,10 @@
                   <c:pt idx="3">
                     <c:v>Sem-2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Semana-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Semana-4</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sprint 1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1800,10 +1548,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$11:$O$11</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$D$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1820,24 +1568,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2917,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3255,15 +2985,6 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E9">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3273,6 +2994,15 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
@@ -3305,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3488,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3651,26 +3381,12 @@
         <f>G6*H6</f>
         <v>16</v>
       </c>
-      <c r="J6" s="16">
-        <v>4</v>
-      </c>
-      <c r="K6" s="16">
-        <v>4</v>
-      </c>
-      <c r="L6" s="17">
-        <f>J6*K6</f>
-        <v>16</v>
-      </c>
-      <c r="M6" s="16">
-        <v>4</v>
-      </c>
-      <c r="N6" s="16">
-        <v>4</v>
-      </c>
-      <c r="O6" s="17">
-        <f>M6*N6</f>
-        <v>16</v>
-      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
@@ -3699,26 +3415,12 @@
         <f>G7*H7</f>
         <v>6</v>
       </c>
-      <c r="J7" s="16">
-        <v>3</v>
-      </c>
-      <c r="K7" s="16">
-        <v>2</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" ref="L7:L11" si="0">J7*K7</f>
-        <v>6</v>
-      </c>
-      <c r="M7" s="16">
-        <v>2</v>
-      </c>
-      <c r="N7" s="16">
-        <v>2</v>
-      </c>
-      <c r="O7" s="17">
-        <f t="shared" ref="O7:O11" si="1">M7*N7</f>
-        <v>4</v>
-      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
@@ -3747,26 +3449,12 @@
         <f>G8*H8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="16">
-        <v>1</v>
-      </c>
-      <c r="N8" s="16">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -3792,29 +3480,15 @@
         <v>4</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" ref="I9" si="2">G9*H9</f>
+        <f t="shared" ref="I7:I9" si="0">G9*H9</f>
         <v>12</v>
       </c>
-      <c r="J9" s="16">
-        <v>3</v>
-      </c>
-      <c r="K9" s="16">
-        <v>4</v>
-      </c>
-      <c r="L9" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M9" s="16">
-        <v>3</v>
-      </c>
-      <c r="N9" s="16">
-        <v>4</v>
-      </c>
-      <c r="O9" s="17">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
@@ -3830,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" ref="F10" si="3">D10*E10</f>
+        <f t="shared" ref="F6:F11" si="1">D10*E10</f>
         <v>16</v>
       </c>
       <c r="G10" s="16">
@@ -3843,26 +3517,12 @@
         <f>G10*H10</f>
         <v>12</v>
       </c>
-      <c r="J10" s="16">
-        <v>3</v>
-      </c>
-      <c r="K10" s="16">
-        <v>4</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M10" s="16">
-        <v>3</v>
-      </c>
-      <c r="N10" s="16">
-        <v>4</v>
-      </c>
-      <c r="O10" s="17">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
@@ -3891,26 +3551,12 @@
         <f>G11*H11</f>
         <v>6</v>
       </c>
-      <c r="J11" s="16">
-        <v>2</v>
-      </c>
-      <c r="K11" s="16">
-        <v>3</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M11" s="16">
-        <v>2</v>
-      </c>
-      <c r="N11" s="16">
-        <v>3</v>
-      </c>
-      <c r="O11" s="17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
@@ -3946,22 +3592,22 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I11 F6:F11 L6:L11 O6:O11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
-      <formula>17</formula>
-      <formula>25</formula>
+  <conditionalFormatting sqref="O6:O11 L6:L11 I6:I11 F6:F11">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>0</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>10</formula>
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
-      <formula>0</formula>
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
-      <formula>3</formula>
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049DBADF-3793-44E5-AADC-CCA890AC7445}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58457E8A-3F42-4D3A-8053-30C5305841F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
     <sheet name="Riesgo tecnico - Consolidado" sheetId="3" r:id="rId2"/>
     <sheet name="Riesgo tecnico - Tracker semana" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1002,7 +1007,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1027,15 +1032,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sem-1</c:v>
+                    <c:v>Semana-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Sem-2</c:v>
+                    <c:v>Semana-4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 1</c:v>
+                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1043,7 +1048,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$6:$I$6</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1057,13 +1062,13 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1108,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1128,15 +1133,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sem-1</c:v>
+                    <c:v>Semana-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Sem-2</c:v>
+                    <c:v>Semana-4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 1</c:v>
+                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1144,18 +1149,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$7:$I$7</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -1204,7 +1209,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1229,15 +1234,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sem-1</c:v>
+                    <c:v>Semana-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Sem-2</c:v>
+                    <c:v>Semana-4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 1</c:v>
+                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1245,27 +1250,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$8:$I$8</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1310,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1330,15 +1335,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sem-1</c:v>
+                    <c:v>Semana-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Sem-2</c:v>
+                    <c:v>Semana-4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 1</c:v>
+                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1346,7 +1351,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$9:$I$9</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1406,7 +1411,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1431,15 +1436,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sem-1</c:v>
+                    <c:v>Semana-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Sem-2</c:v>
+                    <c:v>Semana-4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 1</c:v>
+                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1447,7 +1452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$10:$I$10</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1461,13 +1466,13 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,7 +1512,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$3:$I$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1532,15 +1537,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sem-1</c:v>
+                    <c:v>Semana-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Sem-2</c:v>
+                    <c:v>Semana-4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 1</c:v>
+                    <c:v>Sprint 2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1548,7 +1553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$D$11:$I$11</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$J$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2346,15 +2351,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>750094</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144463</xdr:rowOff>
+      <xdr:colOff>638969</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>559594</xdr:colOff>
+      <xdr:colOff>448469</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>220663</xdr:rowOff>
+      <xdr:rowOff>306388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2647,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3218,14 +3223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="3" max="3" width="31.36328125" style="3" customWidth="1"/>
     <col min="4" max="15" width="6.6328125" customWidth="1"/>
   </cols>
@@ -3381,12 +3386,26 @@
         <f>G6*H6</f>
         <v>16</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="J6" s="16">
+        <v>5</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+      <c r="L6" s="17">
+        <f>J6*K6</f>
+        <v>15</v>
+      </c>
+      <c r="M6" s="16">
+        <v>5</v>
+      </c>
+      <c r="N6" s="16">
+        <v>3</v>
+      </c>
+      <c r="O6" s="17">
+        <f>M6*N6</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
@@ -3415,12 +3434,26 @@
         <f>G7*H7</f>
         <v>6</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="J7" s="16">
+        <v>2</v>
+      </c>
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" ref="L7:L11" si="0">J7*K7</f>
+        <v>6</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2</v>
+      </c>
+      <c r="N7" s="16">
+        <v>3</v>
+      </c>
+      <c r="O7" s="17">
+        <f t="shared" ref="O7:O11" si="1">M7*N7</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
@@ -3449,12 +3482,26 @@
         <f>G8*H8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="J8" s="16">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M8" s="16">
+        <v>3</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -3480,15 +3527,29 @@
         <v>4</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" ref="I7:I9" si="0">G9*H9</f>
+        <f t="shared" ref="I9" si="2">G9*H9</f>
         <v>12</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="J9" s="16">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
+        <v>4</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="16">
+        <v>3</v>
+      </c>
+      <c r="N9" s="16">
+        <v>4</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
@@ -3504,7 +3565,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" ref="F6:F11" si="1">D10*E10</f>
+        <f t="shared" ref="F10" si="3">D10*E10</f>
         <v>16</v>
       </c>
       <c r="G10" s="16">
@@ -3517,12 +3578,26 @@
         <f>G10*H10</f>
         <v>12</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="J10" s="16">
+        <v>4</v>
+      </c>
+      <c r="K10" s="16">
+        <v>4</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M10" s="16">
+        <v>4</v>
+      </c>
+      <c r="N10" s="16">
+        <v>4</v>
+      </c>
+      <c r="O10" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
@@ -3551,12 +3626,26 @@
         <f>G11*H11</f>
         <v>6</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="J11" s="16">
+        <v>2</v>
+      </c>
+      <c r="K11" s="16">
+        <v>3</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16">
+        <v>3</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
@@ -3592,7 +3681,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11 L6:L11 I6:I11 F6:F11">
+  <conditionalFormatting sqref="I6:I11 F6:F11 L6:L11 O6:O11">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>3</formula>
       <formula>4</formula>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58457E8A-3F42-4D3A-8053-30C5305841F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35F89B-D990-4A8C-84B5-CB834D564BD8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Riesgo tecnico - Tracker semana" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -338,6 +339,15 @@
   <si>
     <t>Priorizatión Fibonacci Numbers
 2, 3, 5, 8, 13, 21, 34, 55, 89, 144, 233</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Semana-5</t>
+  </si>
+  <si>
+    <t>Semana-6</t>
   </si>
 </sst>
 </file>
@@ -707,13 +717,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,7 +767,70 @@
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1007,7 +1080,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1032,15 +1105,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-3</c:v>
+                    <c:v>Semana-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-4</c:v>
+                    <c:v>Semana-6</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 2</c:v>
+                    <c:v>Sprint 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1048,7 +1121,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$6:$O$6</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$6:$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1062,13 +1135,13 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1181,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1133,15 +1206,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-3</c:v>
+                    <c:v>Semana-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-4</c:v>
+                    <c:v>Semana-6</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 2</c:v>
+                    <c:v>Sprint 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1149,7 +1222,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$7:$O$7</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$7:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1209,7 +1282,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1234,15 +1307,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-3</c:v>
+                    <c:v>Semana-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-4</c:v>
+                    <c:v>Semana-6</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 2</c:v>
+                    <c:v>Sprint 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1250,7 +1323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$8:$O$8</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$8:$U$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1258,19 +1331,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1383,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1335,15 +1408,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-3</c:v>
+                    <c:v>Semana-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-4</c:v>
+                    <c:v>Semana-6</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 2</c:v>
+                    <c:v>Sprint 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1351,7 +1424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$9:$O$9</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$9:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1411,7 +1484,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1436,15 +1509,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-3</c:v>
+                    <c:v>Semana-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-4</c:v>
+                    <c:v>Semana-6</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 2</c:v>
+                    <c:v>Sprint 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1452,7 +1525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$10:$O$10</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$10:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1512,7 +1585,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$3:$O$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1537,15 +1610,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-3</c:v>
+                    <c:v>Semana-5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-4</c:v>
+                    <c:v>Semana-6</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 2</c:v>
+                    <c:v>Sprint 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1553,7 +1626,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$J$11:$O$11</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$P$11:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2350,16 +2423,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>638969</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26988</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2699</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>448469</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>306388</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>281464</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177483</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2652,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2861,7 +2934,9 @@
       <c r="F9" s="37">
         <v>89</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37">
+        <v>3</v>
+      </c>
       <c r="H9"/>
       <c r="I9" s="39" t="s">
         <v>85</v>
@@ -3000,24 +3075,24 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"M"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3040,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3221,10 +3296,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:O12"/>
+  <dimension ref="B1:U12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3232,90 +3310,114 @@
     <col min="1" max="1" width="1.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="3" max="3" width="31.36328125" style="3" customWidth="1"/>
-    <col min="4" max="15" width="6.6328125" customWidth="1"/>
+    <col min="4" max="21" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
-    <row r="2" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="45" t="s">
+    <row r="2" spans="2:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
     </row>
-    <row r="3" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="45" t="s">
+    <row r="3" spans="2:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
     </row>
-    <row r="4" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+    <row r="4" spans="2:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45" t="s">
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="44" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
+      <c r="P4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
     </row>
-    <row r="5" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
@@ -3358,8 +3460,26 @@
       <c r="O5" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="P5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
@@ -3373,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="17">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
         <v>15</v>
       </c>
       <c r="G6" s="16">
@@ -3383,7 +3503,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="17">
-        <f>G6*H6</f>
+        <f t="shared" ref="I6:I11" si="1">G6*H6</f>
         <v>16</v>
       </c>
       <c r="J6" s="16">
@@ -3393,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="17">
-        <f>J6*K6</f>
+        <f t="shared" ref="L6:L11" si="2">J6*K6</f>
         <v>15</v>
       </c>
       <c r="M6" s="16">
@@ -3403,11 +3523,31 @@
         <v>3</v>
       </c>
       <c r="O6" s="17">
-        <f>M6*N6</f>
+        <f t="shared" ref="O6:O11" si="3">M6*N6</f>
         <v>15</v>
       </c>
+      <c r="P6" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>3</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" ref="R6:R11" si="4">P6*Q6</f>
+        <v>15</v>
+      </c>
+      <c r="S6" s="16">
+        <v>4</v>
+      </c>
+      <c r="T6" s="16">
+        <v>3</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" ref="U6:U11" si="5">S6*T6</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="17">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G7" s="16">
@@ -3431,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="17">
-        <f>G7*H7</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J7" s="16">
@@ -3441,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="17">
-        <f t="shared" ref="L7:L11" si="0">J7*K7</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M7" s="16">
@@ -3451,11 +3591,31 @@
         <v>3</v>
       </c>
       <c r="O7" s="17">
-        <f t="shared" ref="O7:O11" si="1">M7*N7</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="P7" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>3</v>
+      </c>
+      <c r="R7" s="17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S7" s="16">
+        <v>2</v>
+      </c>
+      <c r="T7" s="16">
+        <v>3</v>
+      </c>
+      <c r="U7" s="17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
@@ -3469,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="17">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="16">
@@ -3479,31 +3639,51 @@
         <v>1</v>
       </c>
       <c r="I8" s="17">
-        <f>G8*H8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16">
         <v>3</v>
       </c>
-      <c r="K8" s="16">
+      <c r="L8" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M8" s="16">
         <v>1</v>
       </c>
-      <c r="L8" s="17">
-        <f t="shared" si="0"/>
+      <c r="N8" s="16">
         <v>3</v>
       </c>
-      <c r="M8" s="16">
+      <c r="O8" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N8" s="16">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17">
-        <f t="shared" si="1"/>
+      <c r="P8" s="16">
         <v>3</v>
       </c>
+      <c r="Q8" s="16">
+        <v>3</v>
+      </c>
+      <c r="R8" s="17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S8" s="16">
+        <v>4</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3</v>
+      </c>
+      <c r="U8" s="17">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3517,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="17">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G9" s="16">
@@ -3527,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" ref="I9" si="2">G9*H9</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J9" s="16">
@@ -3537,7 +3717,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M9" s="16">
@@ -3547,37 +3727,57 @@
         <v>4</v>
       </c>
       <c r="O9" s="17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P9" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>4</v>
+      </c>
+      <c r="R9" s="17">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S9" s="16">
+        <v>3</v>
+      </c>
+      <c r="T9" s="16">
+        <v>4</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>4</v>
+      </c>
+      <c r="I10" s="17">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" s="16">
-        <v>4</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" ref="F10" si="3">D10*E10</f>
-        <v>16</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3</v>
-      </c>
-      <c r="H10" s="16">
-        <v>4</v>
-      </c>
-      <c r="I10" s="17">
-        <f>G10*H10</f>
-        <v>12</v>
-      </c>
       <c r="J10" s="16">
         <v>4</v>
       </c>
@@ -3585,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M10" s="16">
@@ -3595,11 +3795,31 @@
         <v>4</v>
       </c>
       <c r="O10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="P10" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>4</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S10" s="16">
+        <v>4</v>
+      </c>
+      <c r="T10" s="16">
+        <v>4</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
@@ -3613,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G11" s="16">
@@ -3623,7 +3843,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="17">
-        <f>G11*H11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J11" s="16">
@@ -3633,7 +3853,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M11" s="16">
@@ -3643,11 +3863,31 @@
         <v>3</v>
       </c>
       <c r="O11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="P11" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>3</v>
+      </c>
+      <c r="R11" s="17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S11" s="16">
+        <v>2</v>
+      </c>
+      <c r="T11" s="16">
+        <v>3</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
@@ -3664,7 +3904,11 @@
       <c r="O12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="D2:U2"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="D4:F4"/>
@@ -3672,31 +3916,54 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="J3:O3"/>
-    <mergeCell ref="D2:O2"/>
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F11 I6:I11 L6:L11 O6:O11">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
       <formula>5</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11 F6:F11 L6:L11 O6:O11">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="between">
       <formula>0</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>10</formula>
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>17</formula>
       <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R11 U6:U11">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>5</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R11 U6:U11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>10</formula>
+      <formula>16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,17 +8,135 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35F89B-D990-4A8C-84B5-CB834D564BD8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A9302-D2BF-46F0-BFF0-23504844B2EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6500" tabRatio="609" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="6504" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBacklog" sheetId="1" r:id="rId1"/>
     <sheet name="Riesgo tecnico - Consolidado" sheetId="3" r:id="rId2"/>
     <sheet name="Riesgo tecnico - Tracker semana" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'Riesgo tecnico - Tracker semana'!$V$7:$AA$7</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'Riesgo tecnico - Tracker semana'!$V$8:$AA$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Riesgo tecnico - Tracker semana'!$V$6:$AA$6</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'Riesgo tecnico - Tracker semana'!$V$9:$AA$9</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'Riesgo tecnico - Tracker semana'!$B$10</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'Riesgo tecnico - Tracker semana'!$B$11</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'Riesgo tecnico - Tracker semana'!$B$6</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'Riesgo tecnico - Tracker semana'!$B$7</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'Riesgo tecnico - Tracker semana'!$B$8</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'Riesgo tecnico - Tracker semana'!$B$9</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'Riesgo tecnico - Tracker semana'!$V$10:$AA$10</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'Riesgo tecnico - Tracker semana'!$V$11:$AA$11</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'Riesgo tecnico - Tracker semana'!$V$3:$AA$5</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -116,9 +234,6 @@
     <t>Como «Thing»</t>
   </si>
   <si>
-    <t>Como «Cliente XMPP»</t>
-  </si>
-  <si>
     <t>Semana-3</t>
   </si>
   <si>
@@ -237,9 +352,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>C</t>
@@ -328,9 +440,6 @@
     <t>debo poder registrarme automáticamente en un servidor XMPP usando credenciales de consumidor</t>
   </si>
   <si>
-    <t>debo poder registrarme automáticamente en servidor XMPP usando credenciales de consumidor</t>
-  </si>
-  <si>
     <t>necesito visualizar  las «credenciales de consumidor», las identidades permitidas y las identidades utilizadas para esta</t>
   </si>
   <si>
@@ -348,6 +457,33 @@
   </si>
   <si>
     <t>Semana-6</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Semana-7</t>
+  </si>
+  <si>
+    <t>Semana-8</t>
+  </si>
+  <si>
+    <t>Como usuario de red XMPP-IoT</t>
+  </si>
+  <si>
+    <t>quiero poder registrar una identidad e ingresar a la red</t>
+  </si>
+  <si>
+    <t>Para leer o escribir valores de mis dispositivos (Things)</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Semana-9</t>
+  </si>
+  <si>
+    <t>Semana-10</t>
   </si>
 </sst>
 </file>
@@ -502,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -562,6 +698,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -603,7 +759,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -726,6 +882,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47"/>
@@ -767,7 +929,196 @@
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -833,64 +1184,31 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,36 +1239,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1080,7 +1368,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$3:$AG$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1105,15 +1393,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-5</c:v>
+                    <c:v>Semana-9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-6</c:v>
+                    <c:v>Semana-10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 3</c:v>
+                    <c:v>Sprint 5</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1121,27 +1409,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$6:$U$6</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$6:$AG$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,7 +1469,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$3:$AG$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1206,15 +1494,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-5</c:v>
+                    <c:v>Semana-9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-6</c:v>
+                    <c:v>Semana-10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 3</c:v>
+                    <c:v>Sprint 5</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1222,27 +1510,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$7:$U$7</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$7:$AG$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,7 +1570,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$3:$AG$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1307,15 +1595,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-5</c:v>
+                    <c:v>Semana-9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-6</c:v>
+                    <c:v>Semana-10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 3</c:v>
+                    <c:v>Sprint 5</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1323,27 +1611,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$8:$U$8</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$8:$AG$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1671,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$3:$AG$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1408,15 +1696,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-5</c:v>
+                    <c:v>Semana-9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-6</c:v>
+                    <c:v>Semana-10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 3</c:v>
+                    <c:v>Sprint 5</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1424,27 +1712,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$9:$U$9</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$9:$AG$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,7 +1772,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$3:$AG$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1509,15 +1797,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-5</c:v>
+                    <c:v>Semana-9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-6</c:v>
+                    <c:v>Semana-10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 3</c:v>
+                    <c:v>Sprint 5</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1525,27 +1813,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$10:$U$10</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$10:$AG$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,7 +1873,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$3:$U$5</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$3:$AG$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1610,15 +1898,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Semana-5</c:v>
+                    <c:v>Semana-9</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Semana-6</c:v>
+                    <c:v>Semana-10</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Sprint 3</c:v>
+                    <c:v>Sprint 5</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1626,27 +1914,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Riesgo tecnico - Tracker semana'!$P$11:$U$11</c:f>
+              <c:f>'Riesgo tecnico - Tracker semana'!$AB$11:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,16 +2711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2699</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>188913</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68012</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>281464</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>177483</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2723,348 +3011,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="31.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" customWidth="1"/>
-    <col min="9" max="9" width="46.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="37">
+        <v>55</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="37">
+        <v>55</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5"/>
+      <c r="J5" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>80</v>
       </c>
+      <c r="E6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="37">
+        <v>55</v>
+      </c>
+      <c r="H6" s="37">
+        <v>2</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="36" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="22" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="7" spans="2:10" s="22" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="37">
+        <v>34</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7"/>
+      <c r="J7" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="22" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="37">
+        <v>13</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="2:10" s="22" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="37">
-        <v>55</v>
-      </c>
-      <c r="G4" s="37">
-        <v>1</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" s="36" t="s">
-        <v>69</v>
+      <c r="G9" s="37">
+        <v>89</v>
+      </c>
+      <c r="H9" s="37">
+        <v>3</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="39" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="37">
-        <v>55</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5"/>
-      <c r="I5" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="37">
-        <v>55</v>
-      </c>
-      <c r="G6" s="37">
-        <v>2</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="22" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="37">
-        <v>55</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7"/>
-      <c r="I7" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="22" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="37">
+    <row r="10" spans="2:10" s="22" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="50" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="37">
-        <v>89</v>
-      </c>
-      <c r="G9" s="37">
-        <v>3</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="37">
+      <c r="E10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="37">
         <v>89</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10"/>
+      <c r="H10" s="37">
+        <v>4</v>
+      </c>
+      <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>36</v>
-      </c>
+    <row r="11" spans="2:10" s="22" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="37">
+        <v>90</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="37">
         <v>55</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11"/>
+      <c r="H11" s="37">
+        <v>5</v>
+      </c>
+      <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="34"/>
+    <row r="12" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12"/>
+      <c r="H12" s="4"/>
+      <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="34"/>
+    <row r="13" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13"/>
+      <c r="H13" s="4"/>
+      <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34"/>
+    <row r="14" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14"/>
+      <c r="H14" s="4"/>
+      <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="34"/>
+    <row r="15" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15"/>
+      <c r="H15" s="4"/>
+      <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="34"/>
+    <row r="16" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16"/>
+      <c r="H16" s="4"/>
+      <c r="I16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="33"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E9">
+  <conditionalFormatting sqref="F4:F9">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3075,24 +3376,15 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"M"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F11">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"M"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3115,26 +3407,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="30" customWidth="1"/>
     <col min="3" max="3" width="35" style="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="48.26953125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="5.36328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -3149,7 +3441,7 @@
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
@@ -3157,7 +3449,7 @@
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
@@ -3180,104 +3472,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="68.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:13" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="52.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:13" ht="62.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -3296,24 +3588,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:U12"/>
+  <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" style="3" customWidth="1"/>
-    <col min="4" max="21" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="3" customWidth="1"/>
+    <col min="4" max="21" width="6.6640625" customWidth="1"/>
+    <col min="22" max="33" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="45" t="s">
         <v>17</v>
       </c>
@@ -3331,35 +3624,41 @@
       <c r="N1" s="45"/>
       <c r="O1" s="45"/>
     </row>
-    <row r="2" spans="2:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
     </row>
-    <row r="3" spans="2:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -3367,7 +3666,7 @@
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
       <c r="J3" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
@@ -3375,15 +3674,31 @@
       <c r="N3" s="43"/>
       <c r="O3" s="43"/>
       <c r="P3" s="43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
       <c r="T3" s="43"/>
       <c r="U3" s="43"/>
+      <c r="V3" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
     </row>
-    <row r="4" spans="2:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="44" t="s">
@@ -3397,29 +3712,49 @@
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
       <c r="J4" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
       <c r="M4" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
       <c r="P4" s="43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="43"/>
       <c r="R4" s="43"/>
       <c r="S4" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T4" s="44"/>
       <c r="U4" s="44"/>
+      <c r="V4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
     </row>
-    <row r="5" spans="2:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>9</v>
@@ -3478,13 +3813,49 @@
       <c r="U5" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="V5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="16">
         <v>5</v>
@@ -3546,13 +3917,53 @@
         <f t="shared" ref="U6:U11" si="5">S6*T6</f>
         <v>12</v>
       </c>
+      <c r="V6" s="16">
+        <v>2</v>
+      </c>
+      <c r="W6" s="16">
+        <v>3</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" ref="X6:X11" si="6">V6*W6</f>
+        <v>6</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="17">
+        <f t="shared" ref="AA6:AA11" si="7">Y6*Z6</f>
+        <v>6</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="17">
+        <f t="shared" ref="AD6:AD11" si="8">AB6*AC6</f>
+        <v>4</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="17">
+        <f t="shared" ref="AG6:AG11" si="9">AE6*AF6</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="16">
         <v>4</v>
@@ -3614,13 +4025,53 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
+      <c r="V7" s="16">
+        <v>1</v>
+      </c>
+      <c r="W7" s="16">
+        <v>1</v>
+      </c>
+      <c r="X7" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="17">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -3682,13 +4133,53 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
+      <c r="W8" s="16">
+        <v>4</v>
+      </c>
+      <c r="X8" s="17">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="17">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="17">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="17">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="16">
         <v>3</v>
@@ -3750,13 +4241,53 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
+      <c r="V9" s="16">
+        <v>3</v>
+      </c>
+      <c r="W9" s="16">
+        <v>3</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="17">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="17">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="17">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="16">
         <v>4</v>
@@ -3818,13 +4349,53 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
+      <c r="V10" s="16">
+        <v>3</v>
+      </c>
+      <c r="W10" s="16">
+        <v>4</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="17">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="17">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="2:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="16">
         <v>2</v>
@@ -3886,8 +4457,48 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
+      <c r="V11" s="16">
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <v>3</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="17">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="17">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="2:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
@@ -3904,11 +4515,17 @@
       <c r="O12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="D2:AA2"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="D2:U2"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="D4:F4"/>
@@ -3919,36 +4536,84 @@
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F11 I6:I11 L6:L11 O6:O11">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="between">
       <formula>5</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I11 F6:F11 L6:L11 O6:O11">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="between">
+      <formula>10</formula>
+      <formula>16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="between">
+      <formula>0</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R11 U6:U11">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="between">
+      <formula>5</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R11 U6:U11">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
+      <formula>10</formula>
+      <formula>16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
       <formula>0</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:X11 AA6:AA11">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+      <formula>5</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:X11 AA6:AA11">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+      <formula>17</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
       <formula>10</formula>
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
-      <formula>17</formula>
-      <formula>25</formula>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="between">
+      <formula>0</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R11 U6:U11">
+  <conditionalFormatting sqref="AD6:AD11 AG6:AG11">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>5</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R11 U6:U11">
+  <conditionalFormatting sqref="AD6:AD11 AG6:AG11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>17</formula>
       <formula>25</formula>

--- a/OF0348-RISKS.xlsx
+++ b/OF0348-RISKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\OF0348-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A9302-D2BF-46F0-BFF0-23504844B2EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0C71E-1162-4F6D-85B8-716AC7EF6759}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="6504" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
